--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt BJUV.xlsx
+++ b/Översikt BJUV.xlsx
@@ -572,7 +572,7 @@
         <v>43370</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>43612</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43612</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43676</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43888</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44081</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44684</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>44684</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>44712</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>44712</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
